--- a/conf_matrix_calc.xlsx
+++ b/conf_matrix_calc.xlsx
@@ -1,22 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\merta\Documents\Python For Stats\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27058E8-2B28-4888-A905-028217240F4C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="21075" windowHeight="7755"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="6">
   <si>
     <t>Pred\Actual</t>
   </si>
@@ -39,7 +53,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -80,6 +94,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -128,7 +145,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -161,9 +178,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -196,6 +230,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -371,21 +422,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -402,8 +453,24 @@
         <f>(B2+C3)/SUM(B2:C3)</f>
         <v>0.99687010954616584</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1">
+        <f>(J2+K3)/SUM(J2:K3)</f>
+        <v>0.92175273865414709</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -420,8 +487,24 @@
         <f>B2/B4</f>
         <v>0.94594594594594594</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>16</v>
+      </c>
+      <c r="K2">
+        <v>29</v>
+      </c>
+      <c r="M2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2">
+        <f>J2/J4</f>
+        <v>0.43243243243243246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -438,8 +521,24 @@
         <f>C3/C4</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>21</v>
+      </c>
+      <c r="K3">
+        <v>573</v>
+      </c>
+      <c r="M3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3">
+        <f>K3/K4</f>
+        <v>0.95182724252491691</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B4">
         <f>SUM(B2:B3)</f>
         <v>37</v>
@@ -448,8 +547,20 @@
         <f>SUM(C2:C3)</f>
         <v>602</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <f>SUM(J2:J3)</f>
+        <v>37</v>
+      </c>
+      <c r="K4">
+        <f>SUM(K2:K3)</f>
+        <v>602</v>
+      </c>
+      <c r="L4">
+        <f>SUM(J4:K4)</f>
+        <v>639</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -466,8 +577,24 @@
         <f>(B7+C8)/SUM(B7:C8)</f>
         <v>0.90398126463700235</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <f>(J7+K8)/SUM(J7:K8)</f>
+        <v>0.92271662763466045</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -484,8 +611,24 @@
         <f>B7/B9</f>
         <v>0.1111111111111111</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>19</v>
+      </c>
+      <c r="M7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N7">
+        <f>J7/J9</f>
+        <v>0.22222222222222221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -502,8 +645,24 @@
         <f>C8/C9</f>
         <v>0.93887530562347188</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>14</v>
+      </c>
+      <c r="K8">
+        <v>390</v>
+      </c>
+      <c r="M8" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8">
+        <f>K8/K9</f>
+        <v>0.95354523227383858</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B9">
         <f>SUM(B7:B8)</f>
         <v>18</v>
@@ -512,8 +671,20 @@
         <f>SUM(C7:C8)</f>
         <v>409</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <f>SUM(J7:J8)</f>
+        <v>18</v>
+      </c>
+      <c r="K9">
+        <f>SUM(K7:K8)</f>
+        <v>409</v>
+      </c>
+      <c r="L9">
+        <f>SUM(J9:K9)</f>
+        <v>427</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -531,7 +702,7 @@
         <v>0.94522691705790296</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -549,7 +720,7 @@
         <v>0.1891891891891892</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -567,7 +738,7 @@
         <v>0.99169435215946844</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B14">
         <f>SUM(B12:B13)</f>
         <v>37</v>
@@ -577,7 +748,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -595,7 +766,7 @@
         <v>0.94379391100702581</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -613,7 +784,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -631,7 +802,7 @@
         <v>0.98044009779951102</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B19">
         <f>SUM(B17:B18)</f>
         <v>18</v>
@@ -648,24 +819,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
